--- a/krilov/files/3/3var9-14.xlsx
+++ b/krilov/files/3/3var9-14.xlsx
@@ -783,7 +783,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -904,10 +904,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1227,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G1465"/>
+  <dimension ref="A1:J1465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1466" sqref="E168:E1466"/>
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1244,7 @@
     <col min="7" max="7" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1263,8 +1263,16 @@
       <c r="F1" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <f>517</f>
+        <v>517</v>
+      </c>
+      <c r="J1">
+        <f>I1-E118</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1288,7 +1296,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>Kaptur</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v xml:space="preserve"> Qashqai</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v xml:space="preserve"> Qashqai</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1504,7 +1512,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1528,7 +1536,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v xml:space="preserve"> Qashqai</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>RIO HATCHBACK</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -5248,7 +5256,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -5584,7 +5592,7 @@
         <v>Kaptur</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -6976,7 +6984,7 @@
         <v xml:space="preserve"> Qashqai</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -7600,7 +7608,7 @@
         <v>RIO SEDAN</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -10912,7 +10920,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6">
         <v>403</v>
       </c>
@@ -11152,7 +11160,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6">
         <v>413</v>
       </c>
@@ -12928,7 +12936,7 @@
         <v>Octavia</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6">
         <v>487</v>
       </c>
@@ -36404,20 +36412,22 @@
   <autoFilter ref="A1:G1465">
     <filterColumn colId="1">
       <filters>
+        <dateGroupItem year="2020" month="1" dateTimeGrouping="month"/>
         <dateGroupItem year="2020" month="2" dateTimeGrouping="month"/>
         <dateGroupItem year="2020" month="3" dateTimeGrouping="month"/>
         <dateGroupItem year="2020" month="4" dateTimeGrouping="month"/>
         <dateGroupItem year="2020" month="5" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="5"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="RIO SEDAN"/>
+        <filter val="A3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -36431,7 +36441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -37973,7 +37983,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
